--- a/biology/Botanique/Asplenium_onopteris/Asplenium_onopteris.xlsx
+++ b/biology/Botanique/Asplenium_onopteris/Asplenium_onopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asplenium onopteris, la Doradille des ânes ou Asplenium fougère d’âne, est une espèce de fougères méditerranéenne de la famille des Aspleniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en français « Asplénie des ânes[1] », « Asplénie onoptère[1] », « Asplénium onoptéris[1],[2] », « Doradille des ânes[1],[2],[3] », « Doradille onopteris[1] », « Polystic onopteris[1] », « Asplénium des ânes[2] » ou encore « Asplénium fougère d'âne[4] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en français « Asplénie des ânes », « Asplénie onoptère », « Asplénium onoptéris, », « Doradille des ânes », « Doradille onopteris », « Polystic onopteris », « Asplénium des ânes » ou encore « Asplénium fougère d'âne ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répartie sur toute la région méditerranéenne et est présente au nord-ouest jusqu'en Irlande et à l'est jusqu'en Iran[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répartie sur toute la région méditerranéenne et est présente au nord-ouest jusqu'en Irlande et à l'est jusqu'en Iran.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Confusion fréquente avec Asplenium adiantum-nigrum, la Doradille noire. A. adiantum-nigrum est moins méditerranéenne, plus océanique et collinéenne que A. onopteris.
 </t>
@@ -604,9 +622,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Asplenium onopteris a pour synonymes[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Asplenium onopteris a pour synonymes :
 (homotypiques)
 Asplenium adiantum-nigrum subsp. onopteris (L.) Heufl. in Verh. Zool.-Bot. Vereins Wien 6: 310 (1856)
 Asplenium adiantum-nigrum var. onopteris (L.) Druce in List Brit. Pl., ed. 2: 137 (1928)
@@ -645,9 +665,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée en « préoccupation mineure » sur la Liste rouge de la flore vasculaire de France métropolitaine mais « en danger » sur la Liste rouge de la flore vasculaire de Bretagne[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée en « préoccupation mineure » sur la Liste rouge de la flore vasculaire de France métropolitaine mais « en danger » sur la Liste rouge de la flore vasculaire de Bretagne.
 </t>
         </is>
       </c>
